--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Locators" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Infotainment Callouts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Safety" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t xml:space="preserve">className</t>
   </si>
@@ -49,7 +51,7 @@
     <t xml:space="preserve">Actual Font Colour</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@class='css-1ink1h8']</t>
+    <t xml:space="preserve">//*[@class='css-1pn4ll4']</t>
   </si>
   <si>
     <t xml:space="preserve">From $59,900 before savings and incentives with 0% APR*</t>
@@ -64,6 +66,9 @@
     <t xml:space="preserve">#101820</t>
   </si>
   <si>
+    <t xml:space="preserve">#000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@class='css-3ycsxw']</t>
   </si>
   <si>
@@ -109,43 +114,16 @@
     <t xml:space="preserve">Free at home service and maintenance*</t>
   </si>
   <si>
-    <t>Element Not Found</t>
-  </si>
-  <si>
-    <t>From $59,900 before savings and incentives with 0% APR*</t>
-  </si>
-  <si>
-    <t>"Polestar Unica", "Helvetica Neue", Helvetica, Arial, sans-serif</t>
-  </si>
-  <si>
-    <t>16px</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>Lease from $599/month*</t>
-  </si>
-  <si>
-    <t>All-wheel drive</t>
-  </si>
-  <si>
-    <t>#101820</t>
-  </si>
-  <si>
-    <t>Dual electric motors</t>
-  </si>
-  <si>
-    <t>Largest charging network in U.S</t>
-  </si>
-  <si>
-    <t>233 miles on a single charge</t>
-  </si>
-  <si>
-    <t>0–62 mph in 4.47 sec</t>
-  </si>
-  <si>
-    <t>Free at home service and maintenance*</t>
+    <t xml:space="preserve">Callouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free internet data for first 3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+35% torsional stiffness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistive emergency braking</t>
   </si>
 </sst>
 </file>
@@ -155,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,6 +169,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +228,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -266,20 +254,20 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="24.29" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="51.0" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="53.3" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.71" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="19.57" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="19.57" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="17.71" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="19.57" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -327,220 +315,220 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
+      <c r="F8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
+      <c r="F9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -552,4 +540,80 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,12 +169,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +225,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,7 +252,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
@@ -553,7 +547,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.73"/>
   </cols>
@@ -587,10 +581,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Locators" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Infotainment Callouts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Safety" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="StateCode" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
   <si>
     <t xml:space="preserve">className</t>
   </si>
@@ -124,6 +125,318 @@
   </si>
   <si>
     <t xml:space="preserve">Assistive emergency braking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY</t>
   </si>
 </sst>
 </file>
@@ -249,10 +562,10 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
@@ -528,7 +841,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -544,10 +857,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.73"/>
   </cols>
@@ -565,7 +878,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -580,11 +893,11 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -604,10 +917,450 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>